--- a/analyse_data_fournie/resolver_dot_190501.xlsx
+++ b/analyse_data_fournie/resolver_dot_190501.xlsx
@@ -8,25 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\INSA\3TC\2\PIR\Mon_sujet\analyses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A45550D-6421-4029-AF6F-A535A2ADD0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19982216-F4CA-43FB-AA4D-C142FD73E997}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nb_pays" sheetId="2" r:id="rId1"/>
     <sheet name="%certif_ok" sheetId="3" r:id="rId2"/>
     <sheet name="CN_communs" sheetId="4" r:id="rId3"/>
     <sheet name="resolver_dot_190501" sheetId="1" r:id="rId4"/>
+    <sheet name="nombre_CN" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8411" uniqueCount="2533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8778" uniqueCount="2534">
   <si>
     <t>1.0.0.1</t>
   </si>
@@ -7625,6 +7637,9 @@
   </si>
   <si>
     <t>Autres</t>
+  </si>
+  <si>
+    <t>moy:</t>
   </si>
 </sst>
 </file>
@@ -8217,7 +8232,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> du nombre de resolvers DoT ouvert pour chaque pays</a:t>
+              <a:t> du nombre de resolvers DoT ouvert pour chaque pays en mai 2019</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -9013,7 +9028,7 @@
               <a:rPr lang="fr-FR" sz="1400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Graphique du % de certificat/nombre des resolvers DoT pour chaque pays</a:t>
+              <a:t>Graphique du % de certificat/nombre des resolvers DoT pour chaque pays en mai 2019</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR" sz="1400">
               <a:effectLst/>
@@ -9209,172 +9224,172 @@
               <c:strCache>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
+                  <c:v>IE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>US</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RU</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>NL</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>JP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CH</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>AT</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>NO</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RO</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SE</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>AU</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="18">
+                  <c:v>CZ</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>DK</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>SG</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>TW</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>TH</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>HK</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>JP</c:v>
+                <c:pt idx="24">
+                  <c:v>PL</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>US</c:v>
+                <c:pt idx="25">
+                  <c:v>TR</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>SG</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FR</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DE</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>TH</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="26">
                   <c:v>VN</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>IN</c:v>
+                <c:pt idx="27">
+                  <c:v>LU</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="28">
+                  <c:v>FI</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>KR</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>TW</c:v>
+                <c:pt idx="30">
+                  <c:v>GR</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>NL</c:v>
+                <c:pt idx="31">
+                  <c:v>ES</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>NO</c:v>
+                <c:pt idx="32">
+                  <c:v>IT</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>DK</c:v>
+                <c:pt idx="33">
+                  <c:v>MU</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>CH</c:v>
+                <c:pt idx="34">
+                  <c:v>VG</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>CA</c:v>
+                <c:pt idx="35">
+                  <c:v>LV</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="36">
+                  <c:v>NZ</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>MX</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>IL</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>UA</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>SA</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>ZA</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>IS</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>HU</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>MD</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>SC</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>PR</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>MO</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>LT</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>SI</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>BE</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>NG</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>SK</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>CO</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>BZ</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>IT</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>TR</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>BR</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>ZA</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>NZ</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>SC</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>SE</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>RU</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>GB</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>IS</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>IL</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>ES</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>MD</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>IE</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>RO</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>AT</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>CO</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>SA</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>MX</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>CZ</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>PL</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>LV</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>UA</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>NG</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>MU</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>MO</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>PR</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>LT</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>BE</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>SK</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>FI</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>GR</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>HU</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>SI</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>LU</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>VG</c:v>
-                </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>(vide)</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>Groupe1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9385,113 +9400,113 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="22">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>7</c:v>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="25">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="39">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>3</c:v>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="47">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="53">
                   <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9532,172 +9547,172 @@
               <c:strCache>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
+                  <c:v>IE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>US</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FR</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>BR</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>RU</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>CN</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>NL</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>JP</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>GB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>CH</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>CA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>IN</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>AT</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>NO</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>RO</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>SE</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>AU</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="18">
+                  <c:v>CZ</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>DK</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>SG</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>TW</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>TH</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>HK</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>JP</c:v>
+                <c:pt idx="24">
+                  <c:v>PL</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>US</c:v>
+                <c:pt idx="25">
+                  <c:v>TR</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>SG</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>FR</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>DE</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>TH</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="26">
                   <c:v>VN</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>IN</c:v>
+                <c:pt idx="27">
+                  <c:v>LU</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="28">
+                  <c:v>FI</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>KR</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>TW</c:v>
+                <c:pt idx="30">
+                  <c:v>GR</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>NL</c:v>
+                <c:pt idx="31">
+                  <c:v>ES</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>NO</c:v>
+                <c:pt idx="32">
+                  <c:v>IT</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>DK</c:v>
+                <c:pt idx="33">
+                  <c:v>MU</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>CH</c:v>
+                <c:pt idx="34">
+                  <c:v>VG</c:v>
                 </c:pt>
-                <c:pt idx="16">
-                  <c:v>CA</c:v>
+                <c:pt idx="35">
+                  <c:v>LV</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="36">
+                  <c:v>NZ</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>MX</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>IL</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>UA</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>SA</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>ZA</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>IS</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>HU</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>MD</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>SC</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>PR</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>MO</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>LT</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>SI</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>BE</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>NG</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>SK</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>CO</c:v>
+                </c:pt>
+                <c:pt idx="54">
                   <c:v>BZ</c:v>
                 </c:pt>
-                <c:pt idx="18">
-                  <c:v>IT</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>TR</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>BR</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>ZA</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>NZ</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>SC</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>SE</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>RU</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>GB</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>IS</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>IL</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>ES</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>MD</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>IE</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>RO</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>AT</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>CO</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>SA</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>MX</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>CZ</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>PL</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>LV</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>UA</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>NG</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>MU</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>MO</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>PR</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>LT</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>BE</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>SK</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>FI</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>GR</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>HU</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>SI</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>LU</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>VG</c:v>
-                </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>(vide)</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>Groupe1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9709,106 +9724,109 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="56"/>
                 <c:pt idx="0">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="17">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>506</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="19">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>42</c:v>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="21">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="12">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="26">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="30">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="31">
-                  <c:v>951</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>5</c:v>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>6</c:v>
+                <c:pt idx="36">
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1</c:v>
@@ -9817,37 +9835,34 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="44">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="48">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3</c:v>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="53">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>35</c:v>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10118,7 +10133,7 @@
               <a:rPr lang="fr-FR" sz="1800" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Nom de domaine des resolvers les plus communs</a:t>
+              <a:t>Nom de domaine des resolvers les plus communs en mai 2019</a:t>
             </a:r>
             <a:endParaRPr lang="fr-FR">
               <a:effectLst/>
@@ -10215,6 +10230,90 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -10248,6 +10347,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8AE7-4203-A2BF-F0985685EFCA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -10263,6 +10367,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8AE7-4203-A2BF-F0985685EFCA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -10278,6 +10387,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-8AE7-4203-A2BF-F0985685EFCA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -10293,6 +10407,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-8AE7-4203-A2BF-F0985685EFCA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -10308,6 +10427,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-8AE7-4203-A2BF-F0985685EFCA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -10323,6 +10447,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-8AE7-4203-A2BF-F0985685EFCA}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -12185,16 +12314,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>769620</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12227,15 +12356,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>708660</xdr:colOff>
+      <xdr:colOff>708659</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>72390</xdr:rowOff>
+      <xdr:rowOff>70483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>441960</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -27797,7 +27926,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{48673E05-5150-4CA2-A6AD-D682B1F6A00B}" name="Tableau croisé dynamique1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{48673E05-5150-4CA2-A6AD-D682B1F6A00B}" name="Tableau croisé dynamique1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B60" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0">
@@ -30644,7 +30773,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1ECCC8AA-A9FA-4580-B012-8BFB8F794A3D}" name="Tableau croisé dynamique2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1ECCC8AA-A9FA-4580-B012-8BFB8F794A3D}" name="Tableau croisé dynamique2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:D61" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -31114,7 +31243,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+    <pivotField axis="axisRow" showAll="0" sortType="descending" defaultSubtotal="0">
       <items count="57">
         <item x="0"/>
         <item x="1"/>
@@ -31172,8 +31301,17 @@
         <item x="53"/>
         <item h="1" x="54"/>
         <item x="55"/>
-        <item x="56"/>
+        <item n="CN" x="56"/>
       </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
       <items count="3">
@@ -31205,49 +31343,34 @@
   </rowFields>
   <rowItems count="57">
     <i>
-      <x/>
+      <x v="31"/>
     </i>
     <i>
-      <x v="1"/>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="12"/>
     </i>
     <i>
       <x v="2"/>
     </i>
     <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
+      <x v="26"/>
     </i>
     <i>
       <x v="15"/>
@@ -31256,121 +31379,136 @@
       <x v="16"/>
     </i>
     <i>
-      <x v="17"/>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="29"/>
     </i>
     <i>
       <x v="18"/>
     </i>
     <i>
-      <x v="19"/>
+      <x v="42"/>
     </i>
     <i>
-      <x v="20"/>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="35"/>
     </i>
     <i>
       <x v="21"/>
     </i>
     <i>
-      <x v="22"/>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="30"/>
     </i>
     <i>
       <x v="23"/>
     </i>
     <i>
-      <x v="24"/>
+      <x v="44"/>
     </i>
     <i>
-      <x v="25"/>
+      <x v="43"/>
     </i>
     <i>
-      <x v="26"/>
+      <x v="45"/>
     </i>
     <i>
-      <x v="27"/>
+      <x v="51"/>
     </i>
     <i>
-      <x v="28"/>
+      <x v="46"/>
     </i>
     <i>
-      <x v="29"/>
+      <x v="41"/>
     </i>
     <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
+      <x v="47"/>
     </i>
     <i>
       <x v="34"/>
     </i>
     <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="53"/>
+      <x v="17"/>
     </i>
     <i>
       <x v="55"/>
-    </i>
-    <i>
-      <x v="56"/>
     </i>
     <i t="grand">
       <x/>
@@ -31456,7 +31594,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FC6F915-1E87-4A4A-AD2F-5C5CF864678D}" name="Tableau croisé dynamique3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0FC6F915-1E87-4A4A-AD2F-5C5CF864678D}" name="Tableau croisé dynamique3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -32062,12 +32200,84 @@
   <dataFields count="1">
     <dataField name="Nombre de Domaine" fld="2" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="1">
+  <chartFormats count="7">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="6" count="1" selected="0">
+            <x v="5"/>
           </reference>
         </references>
       </pivotArea>
@@ -32384,8 +32594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72D41B3-ABB7-459E-A512-6EA019F67805}">
   <dimension ref="A3:B60"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32864,18 +33074,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3676F736-5B6A-4DEA-AACE-616CCE611FEC}">
-  <dimension ref="A3:D61"/>
+  <dimension ref="A3:D63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
@@ -32914,397 +33125,403 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="4">
-        <v>7</v>
+        <v>951</v>
       </c>
       <c r="D5" s="4">
-        <v>9</v>
+        <v>951</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="B6" s="4">
+        <v>26</v>
+      </c>
       <c r="C6" s="4">
-        <v>6</v>
+        <v>506</v>
       </c>
       <c r="D6" s="4">
-        <v>6</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="B7" s="4">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C7" s="4">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D7" s="4">
-        <v>27</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="B8" s="4">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4">
-        <v>506</v>
+        <v>42</v>
       </c>
       <c r="D8" s="4">
-        <v>532</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="4"/>
+        <v>259</v>
+      </c>
+      <c r="B9" s="4">
+        <v>32</v>
+      </c>
       <c r="C9" s="4">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D9" s="4">
-        <v>7</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>68</v>
+        <v>343</v>
       </c>
       <c r="B10" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D10" s="4">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C11" s="4">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4">
-        <v>86</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="B12" s="4">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>32</v>
+      </c>
       <c r="D12" s="4">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4">
         <v>2</v>
       </c>
       <c r="C13" s="4">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>100</v>
+        <v>348</v>
       </c>
       <c r="B14" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" s="4">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D14" s="4">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" s="4"/>
+        <v>180</v>
+      </c>
+      <c r="B15" s="4">
+        <v>6</v>
+      </c>
       <c r="C15" s="4">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D15" s="4">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>144</v>
+        <v>192</v>
       </c>
       <c r="B16" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C16" s="4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D16" s="4">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="B17" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C17" s="4">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D17" s="4">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B18" s="4"/>
+        <v>1420</v>
+      </c>
+      <c r="B18" s="4">
+        <v>8</v>
+      </c>
       <c r="C18" s="4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D19" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>180</v>
+        <v>1411</v>
       </c>
       <c r="B20" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="4">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D20" s="4">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>192</v>
+        <v>324</v>
       </c>
       <c r="B21" s="4">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4">
         <v>7</v>
       </c>
-      <c r="C21" s="4">
-        <v>10</v>
-      </c>
       <c r="D21" s="4">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="B22" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
+        <v>2</v>
+      </c>
       <c r="C22" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D22" s="4">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>239</v>
+        <v>1479</v>
       </c>
       <c r="B23" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D23" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B24" s="4">
-        <v>1</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="B24" s="4"/>
       <c r="C24" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D24" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="B25" s="4">
-        <v>32</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B25" s="4"/>
       <c r="C25" s="4">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D25" s="4">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>261</v>
+        <v>144</v>
       </c>
       <c r="B26" s="4">
-        <v>2</v>
-      </c>
-      <c r="C26" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="C26" s="4">
+        <v>4</v>
+      </c>
       <c r="D26" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4">
-        <v>2</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B27" s="4">
+        <v>6</v>
+      </c>
+      <c r="C27" s="4"/>
       <c r="D27" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>320</v>
+        <v>11</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>324</v>
+        <v>1494</v>
       </c>
       <c r="B29" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C29" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D29" s="4">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>343</v>
+        <v>252</v>
       </c>
       <c r="B30" s="4">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C30" s="4">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="D30" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>348</v>
+        <v>90</v>
       </c>
       <c r="B31" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D31" s="4">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B32" s="4"/>
+        <v>2478</v>
+      </c>
+      <c r="B32" s="4">
+        <v>2</v>
+      </c>
       <c r="C32" s="4">
         <v>2</v>
       </c>
       <c r="D32" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="B33" s="4">
-        <v>1</v>
-      </c>
+        <v>2329</v>
+      </c>
+      <c r="B33" s="4"/>
       <c r="C33" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D33" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="B34" s="4">
-        <v>1</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B34" s="4"/>
       <c r="C34" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" s="4">
         <v>4</v>
@@ -33312,143 +33529,143 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="B35" s="4"/>
+        <v>2376</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
       <c r="C35" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D35" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="B36" s="4"/>
+        <v>436</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
       <c r="C36" s="4">
-        <v>951</v>
+        <v>3</v>
       </c>
       <c r="D36" s="4">
-        <v>951</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>1411</v>
+        <v>239</v>
       </c>
       <c r="B37" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C37" s="4">
+        <v>3</v>
+      </c>
+      <c r="D37" s="4">
         <v>4</v>
-      </c>
-      <c r="D37" s="4">
-        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>1420</v>
+        <v>1533</v>
       </c>
       <c r="B38" s="4">
-        <v>8</v>
-      </c>
-      <c r="C38" s="4">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C38" s="4"/>
       <c r="D38" s="4">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B39" s="4">
-        <v>1</v>
-      </c>
-      <c r="C39" s="4"/>
+        <v>2512</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4">
+        <v>3</v>
+      </c>
       <c r="D39" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>1435</v>
+        <v>1502</v>
       </c>
       <c r="B40" s="4">
         <v>1</v>
       </c>
       <c r="C40" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D40" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B41" s="4">
+        <v>317</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4">
         <v>2</v>
       </c>
-      <c r="C41" s="4"/>
       <c r="D41" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>1479</v>
+        <v>1450</v>
       </c>
       <c r="B42" s="4">
         <v>2</v>
       </c>
-      <c r="C42" s="4">
-        <v>6</v>
-      </c>
+      <c r="C42" s="4"/>
       <c r="D42" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>1494</v>
+        <v>432</v>
       </c>
       <c r="B43" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C43" s="4">
         <v>1</v>
       </c>
       <c r="D43" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B44" s="4">
-        <v>1</v>
-      </c>
+        <v>1513</v>
+      </c>
+      <c r="B44" s="4"/>
       <c r="C44" s="4">
         <v>2</v>
       </c>
       <c r="D44" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B45" s="4"/>
+        <v>1435</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
       <c r="C45" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" s="4">
         <v>2</v>
@@ -33456,31 +33673,31 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>1531</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4">
-        <v>1</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="B46" s="4">
+        <v>2</v>
+      </c>
+      <c r="C46" s="4"/>
       <c r="D46" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>1533</v>
-      </c>
-      <c r="B47" s="4">
-        <v>3</v>
-      </c>
-      <c r="C47" s="4"/>
+        <v>422</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4">
+        <v>2</v>
+      </c>
       <c r="D47" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>1638</v>
+        <v>2442</v>
       </c>
       <c r="B48" s="4">
         <v>1</v>
@@ -33492,19 +33709,19 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>1873</v>
-      </c>
-      <c r="B49" s="4">
+        <v>449</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4">
         <v>1</v>
       </c>
-      <c r="C49" s="4"/>
       <c r="D49" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>2299</v>
+        <v>320</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4">
@@ -33516,69 +33733,67 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>2303</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4">
+        <v>1873</v>
+      </c>
+      <c r="B51" s="4">
         <v>1</v>
       </c>
+      <c r="C51" s="4"/>
       <c r="D51" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>2314</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4">
+        <v>1638</v>
+      </c>
+      <c r="B52" s="4">
         <v>1</v>
       </c>
+      <c r="C52" s="4"/>
       <c r="D52" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>2329</v>
+        <v>2299</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D53" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>2376</v>
-      </c>
-      <c r="B54" s="4">
+        <v>2448</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4">
         <v>1</v>
       </c>
-      <c r="C54" s="4">
-        <v>3</v>
-      </c>
       <c r="D54" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>2442</v>
-      </c>
-      <c r="B55" s="4">
+        <v>2303</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4">
         <v>1</v>
       </c>
-      <c r="C55" s="4"/>
       <c r="D55" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>2448</v>
+        <v>1531</v>
       </c>
       <c r="B56" s="4"/>
       <c r="C56" s="4">
@@ -33590,51 +33805,47 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>2478</v>
-      </c>
-      <c r="B57" s="4">
-        <v>2</v>
-      </c>
+        <v>2314</v>
+      </c>
+      <c r="B57" s="4"/>
       <c r="C57" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>2512</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4">
-        <v>3</v>
-      </c>
+        <v>1427</v>
+      </c>
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4"/>
       <c r="D58" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>2525</v>
+        <v>202</v>
       </c>
       <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
+      <c r="C59" s="4">
+        <v>1</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>2528</v>
-      </c>
-      <c r="B60" s="4">
-        <v>5</v>
-      </c>
-      <c r="C60" s="4">
-        <v>35</v>
-      </c>
-      <c r="D60" s="4">
-        <v>40</v>
-      </c>
+        <v>2525</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
@@ -33648,6 +33859,15 @@
       </c>
       <c r="D61" s="4">
         <v>2053</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>2533</v>
+      </c>
+      <c r="D63">
+        <f xml:space="preserve"> GETPIVOTDATA("Certificat valide",$A$3,"Certificat valide2","ok") / GETPIVOTDATA("Certificat valide",$A$3)</f>
+        <v>0.90696541646371165</v>
       </c>
     </row>
   </sheetData>
@@ -33660,8 +33880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46247A7C-D740-4F6A-9365-3D4F2A8226C6}">
   <dimension ref="A3:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -33745,7 +33965,7 @@
   <dimension ref="A1:H2071"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="C1" sqref="C1:C2071"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -62742,4 +62962,1849 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFABDFFB-0C67-4824-BD06-09F11274C790}">
+  <dimension ref="A1:A369"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A355" workbookViewId="0">
+      <selection activeCell="G370" sqref="G370"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2522</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>1509</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>1575</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>1613</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>1692</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>1753</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>2296</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>2312</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>2318</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>2330</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>2332</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>2334</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>2339</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>2343</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>2345</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>2347</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>2349</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>2360</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>2362</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>2368</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>2374</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>2386</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>2392</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>2406</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>2409</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>2414</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>2416</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>2418</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>2443</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>2449</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>2451</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>2458</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>2467</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>2470</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>2474</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>2479</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>2484</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>2495</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>2498</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>2509</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>